--- a/ExperimentoLinguistica/wwwroot/treino.xlsx
+++ b/ExperimentoLinguistica/wwwroot/treino.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raphael.pinheiro\source\repos\ExperimentoLinguistica\ExperimentoLinguistica\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBF09865-E554-4326-BABF-A7992D83750A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79B6BE0-B968-47C7-AD0D-005C5B2D397F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-84" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{950E166C-EB61-424C-931A-6BDB33488F8A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Alvo</t>
   </si>
@@ -66,14 +66,31 @@
   </si>
   <si>
     <t>#######</t>
+  </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>Japones</t>
+  </si>
+  <si>
+    <t>Mandarim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -101,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,18 +455,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B284EA3D-65E8-47E9-A91D-07212CA2CC97}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +480,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -475,8 +497,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -489,6 +514,29 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/ExperimentoLinguistica/wwwroot/treino.xlsx
+++ b/ExperimentoLinguistica/wwwroot/treino.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raphael.pinheiro\source\repos\ExperimentoLinguistica\ExperimentoLinguistica\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79B6BE0-B968-47C7-AD0D-005C5B2D397F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D347CA9-CE30-4E0F-AA3C-36F7C532B63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-84" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{950E166C-EB61-424C-931A-6BDB33488F8A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Alvo</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Mandarim</t>
+  </si>
+  <si>
+    <t>Aquela Parada 2</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;&amp;</t>
   </si>
 </sst>
 </file>
@@ -455,19 +461,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B284EA3D-65E8-47E9-A91D-07212CA2CC97}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,13 +484,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -495,13 +504,16 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -512,13 +524,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -529,14 +544,17 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F8" s="1"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/ExperimentoLinguistica/wwwroot/treino.xlsx
+++ b/ExperimentoLinguistica/wwwroot/treino.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raphael.pinheiro\source\repos\ExperimentoLinguistica\ExperimentoLinguistica\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D347CA9-CE30-4E0F-AA3C-36F7C532B63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5433CD2C-E4D4-4B0F-B34C-724270DF9BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-84" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{950E166C-EB61-424C-931A-6BDB33488F8A}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>+</t>
   </si>
   <si>
-    <t>#######</t>
-  </si>
-  <si>
     <t>Idioma</t>
   </si>
   <si>
@@ -80,7 +77,10 @@
     <t>Aquela Parada 2</t>
   </si>
   <si>
-    <t>&amp;&amp;&amp;&amp;</t>
+    <t>######</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;&amp;&amp;&amp;</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,13 +484,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -510,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -530,7 +530,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -541,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
